--- a/Unterrichtsstunden/Stex/Anhang_Evaluation/Klassenstufe_9/Stunde_2_Evaluation.xlsx
+++ b/Unterrichtsstunden/Stex/Anhang_Evaluation/Klassenstufe_9/Stunde_2_Evaluation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Leipzig\A_Staatsexamen\Tira_School\Unterrichtsstunden\Stex\Anhang_Evaluation\Klassenstufe_9\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C77854-E24D-45E2-A393-CFB728D5D329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094E82B4-D866-40ED-9B91-F24F7F4398CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="365" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="2. Stunde_Klasse_9" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -473,7 +472,7 @@
   <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
